--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Alumnos</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>mario-zambrano.2403@hotmail.com</t>
+  </si>
+  <si>
+    <t>edu_21_91@hotmail.com</t>
+  </si>
+  <si>
+    <t>katy8993@hotmail.com</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>CABRERA RAMON JEFFERSON AGUSTIN</t>
+  </si>
+  <si>
+    <t>jeffcabrera@hotmail.es</t>
   </si>
 </sst>
 </file>
@@ -529,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -650,6 +668,9 @@
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="2:24">
       <c r="B4">
@@ -667,6 +688,9 @@
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:24">
       <c r="B5">
@@ -682,6 +706,9 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -701,6 +728,9 @@
       <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:24">
       <c r="B7">
@@ -718,6 +748,9 @@
       <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:24">
       <c r="B8">
@@ -735,6 +768,9 @@
       <c r="F8" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:24">
       <c r="B9">
@@ -743,11 +779,16 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -767,6 +808,9 @@
       <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="2:24">
       <c r="B11">
@@ -784,6 +828,9 @@
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="2:24">
       <c r="B12">
@@ -801,6 +848,9 @@
       <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:24">
       <c r="B13">
@@ -818,6 +868,9 @@
       <c r="F13" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:24">
       <c r="B14">
@@ -835,6 +888,9 @@
       <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:24" ht="15" customHeight="1">
       <c r="B15">
@@ -852,6 +908,9 @@
       <c r="F15" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:24">
       <c r="B16">
@@ -869,8 +928,11 @@
       <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>15</v>
       </c>
@@ -886,23 +948,31 @@
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>17</v>
       </c>
@@ -918,8 +988,11 @@
       <c r="F19" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>18</v>
       </c>
@@ -935,8 +1008,11 @@
       <c r="F20" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>19</v>
       </c>
@@ -952,62 +1028,75 @@
       <c r="F21" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7">
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7">
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7">
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:7">
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:7">
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:7">
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:7">
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7">
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="1"/>
@@ -1034,9 +1123,12 @@
     <hyperlink ref="D19" r:id="rId15" display="mailto:velezeti-amvp@hotmail.com"/>
     <hyperlink ref="D20" r:id="rId16" display="mailto:yarlenyzambrano@hotmail.com"/>
     <hyperlink ref="D21" r:id="rId17" display="mailto:mario-zambrano.2403@hotmail.com"/>
+    <hyperlink ref="D9" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19"/>
+    <hyperlink ref="D22" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1044,7 +1136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>

--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>Alumnos</t>
   </si>
@@ -30,9 +30,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>BANEGAS HURTADO HURTADO KAREN</t>
-  </si>
-  <si>
     <t>CALVACHE CHAVEZ CHAVEZ JORDDY ISRAEL</t>
   </si>
   <si>
@@ -154,6 +151,15 @@
   </si>
   <si>
     <t>jeffcabrera@hotmail.es</t>
+  </si>
+  <si>
+    <t>BANEGAS HURTADO KAREN KATHERINE</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -657,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -669,6 +675,9 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -677,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -689,6 +698,9 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -697,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
@@ -710,6 +722,9 @@
       </c>
       <c r="G5" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:24">
@@ -717,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
@@ -729,6 +744,9 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -737,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
@@ -749,6 +767,9 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -757,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
@@ -769,6 +790,9 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -777,10 +801,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>3</v>
@@ -789,6 +813,9 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -797,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>3</v>
@@ -810,6 +837,9 @@
       </c>
       <c r="G10" t="s">
         <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:24">
@@ -817,10 +847,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>3</v>
@@ -830,6 +860,9 @@
       </c>
       <c r="G11" t="s">
         <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:24">
@@ -837,10 +870,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
@@ -850,6 +883,9 @@
       </c>
       <c r="G12" t="s">
         <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:24">
@@ -857,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>3</v>
@@ -870,6 +906,9 @@
       </c>
       <c r="G13" t="s">
         <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:24">
@@ -877,10 +916,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>3</v>
@@ -890,6 +929,9 @@
       </c>
       <c r="G14" t="s">
         <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="15" customHeight="1">
@@ -897,10 +939,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>3</v>
@@ -909,6 +951,9 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -917,10 +962,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>3</v>
@@ -931,16 +976,19 @@
       <c r="G16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
@@ -951,16 +999,19 @@
       <c r="G17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>3</v>
@@ -971,16 +1022,19 @@
       <c r="G18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>3</v>
@@ -991,16 +1045,19 @@
       <c r="G19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>3</v>
@@ -1009,18 +1066,18 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>3</v>
@@ -1031,72 +1088,78 @@
       <c r="G21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8">
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:8">
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:8">
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:8">
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:8">
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:8">
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:8">
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="1"/>

--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="550" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -194,12 +194,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,6 +214,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -265,10 +265,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,27 +278,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,8 +310,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -323,8 +323,8 @@
   </sheetPr>
   <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,6 +455,9 @@
       <c r="I3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -481,6 +484,9 @@
       <c r="I4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -507,6 +513,9 @@
       <c r="I5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -533,6 +542,9 @@
       <c r="I6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -557,6 +569,9 @@
         <v>5</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -585,6 +600,9 @@
       <c r="I8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -611,6 +629,9 @@
       <c r="I9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -637,6 +658,9 @@
       <c r="I10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -663,6 +687,9 @@
       <c r="I11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -689,6 +716,9 @@
       <c r="I12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -715,6 +745,9 @@
       <c r="I13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -741,6 +774,9 @@
       <c r="I14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -767,6 +803,9 @@
       <c r="I15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -793,6 +832,9 @@
       <c r="I16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -819,6 +861,9 @@
       <c r="I17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -845,6 +890,9 @@
       <c r="I18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -871,6 +919,9 @@
       <c r="I19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -894,6 +945,9 @@
       <c r="I20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -920,6 +974,9 @@
       <c r="I21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
@@ -940,6 +997,9 @@
         <v>5</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="550" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="504" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="48">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -311,7 +311,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -323,8 +323,8 @@
   </sheetPr>
   <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,6 +458,12 @@
       <c r="J3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -487,6 +493,12 @@
       <c r="J4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -516,6 +528,12 @@
       <c r="J5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -545,6 +563,9 @@
       <c r="J6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="L6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -572,6 +593,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -603,6 +630,12 @@
       <c r="J8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -632,6 +665,9 @@
       <c r="J9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -661,6 +697,12 @@
       <c r="J10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -690,6 +732,12 @@
       <c r="J11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -719,6 +767,12 @@
       <c r="J12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -748,6 +802,12 @@
       <c r="J13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -777,6 +837,12 @@
       <c r="J14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -806,6 +872,12 @@
       <c r="J15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -835,6 +907,12 @@
       <c r="J16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -864,6 +942,12 @@
       <c r="J17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -893,6 +977,12 @@
       <c r="J18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -922,6 +1012,12 @@
       <c r="J19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -948,6 +1044,12 @@
       <c r="J20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -977,6 +1079,12 @@
       <c r="J21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
@@ -1000,6 +1108,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="504" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="503" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="48">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -311,7 +311,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -323,18 +323,18 @@
   </sheetPr>
   <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.71255060728745"/>
-    <col collapsed="false" hidden="false" max="24" min="8" style="0" width="3"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3765182186235"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3"/>
+    <col collapsed="false" hidden="true" max="10" min="6" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="24" min="11" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -464,6 +464,12 @@
       <c r="L3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -499,6 +505,12 @@
       <c r="L4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -534,6 +546,12 @@
       <c r="L5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -566,6 +584,9 @@
       <c r="L6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -599,6 +620,12 @@
         <v>5</v>
       </c>
       <c r="L7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -636,6 +663,12 @@
       <c r="L8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -668,6 +701,12 @@
       <c r="L9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -703,6 +742,12 @@
       <c r="L10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -738,6 +783,12 @@
       <c r="L11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -773,6 +824,12 @@
       <c r="L12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -808,6 +865,12 @@
       <c r="L13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -843,6 +906,12 @@
       <c r="L14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -878,6 +947,12 @@
       <c r="L15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -913,6 +988,12 @@
       <c r="L16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -948,6 +1029,12 @@
       <c r="L17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -983,6 +1070,12 @@
       <c r="L18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1018,6 +1111,12 @@
       <c r="L19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1050,6 +1149,12 @@
       <c r="L20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1083,6 +1188,12 @@
         <v>5</v>
       </c>
       <c r="L21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="48">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -311,7 +311,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -321,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:X22"/>
+  <dimension ref="B1:X23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R23" activeCellId="0" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,6 +476,12 @@
       <c r="P3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -523,6 +529,12 @@
       <c r="P4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -570,6 +582,12 @@
       <c r="P5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -611,6 +629,12 @@
       <c r="P6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -656,6 +680,12 @@
         <v>5</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -705,6 +735,12 @@
       <c r="P8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -749,6 +785,12 @@
       <c r="P9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -796,6 +838,12 @@
       <c r="P10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -843,6 +891,12 @@
       <c r="P11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -890,6 +944,12 @@
       <c r="P12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -937,6 +997,12 @@
       <c r="P13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -984,6 +1050,12 @@
       <c r="P14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -1031,6 +1103,12 @@
       <c r="P15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -1078,6 +1156,12 @@
       <c r="P16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1125,6 +1209,12 @@
       <c r="P17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1172,6 +1262,12 @@
       <c r="P18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1219,6 +1315,12 @@
       <c r="P19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1263,6 +1365,12 @@
       <c r="P20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1310,8 +1418,14 @@
       <c r="P21" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1461,11 @@
       <c r="P22" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
+      <c r="R22" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:X1"/>

--- a/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/b/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="48">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -311,7 +311,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -323,8 +323,8 @@
   </sheetPr>
   <dimension ref="B1:X23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R23" activeCellId="0" sqref="R23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -362,7 +362,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -482,6 +482,9 @@
       <c r="R3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -535,6 +538,9 @@
       <c r="R4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -588,6 +594,9 @@
       <c r="R5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -635,6 +644,9 @@
       <c r="R6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -686,6 +698,9 @@
         <v>5</v>
       </c>
       <c r="R7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -741,6 +756,9 @@
       <c r="R8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -844,6 +862,9 @@
       <c r="R10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -897,6 +918,9 @@
       <c r="R11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -950,6 +974,9 @@
       <c r="R12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -1003,6 +1030,9 @@
       <c r="R13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -1056,6 +1086,9 @@
       <c r="R14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -1109,6 +1142,9 @@
       <c r="R15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -1162,6 +1198,9 @@
       <c r="R16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1215,6 +1254,9 @@
       <c r="R17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1268,6 +1310,9 @@
       <c r="R18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1321,6 +1366,9 @@
       <c r="R19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1371,6 +1419,9 @@
       <c r="R20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1424,6 +1475,9 @@
       <c r="R21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
@@ -1462,6 +1516,9 @@
         <v>5</v>
       </c>
       <c r="R22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="0" t="s">
         <v>5</v>
       </c>
     </row>
